--- a/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E359CD2-18B1-46B9-98AE-9495E855D5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C406C7-D541-463F-BB2A-5E6C0BB4F079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Satélites" sheetId="3" r:id="rId1"/>
     <sheet name="Asistencias" sheetId="2" r:id="rId2"/>
     <sheet name="Ej_Dinamica" sheetId="4" r:id="rId3"/>
-    <sheet name="Concentrado" sheetId="1" r:id="rId4"/>
+    <sheet name="Plantas_Gen" sheetId="6" r:id="rId4"/>
+    <sheet name="Examen" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrado" sheetId="1" r:id="rId6"/>
+    <sheet name="Parcial_3" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$2:$L$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="88">
   <si>
     <t>Matrícula</t>
   </si>
@@ -180,13 +186,136 @@
   </si>
   <si>
     <t>E2_4</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Aprobados</t>
+  </si>
+  <si>
+    <t>No aprobados</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>Plantas_Generadoras</t>
+  </si>
+  <si>
+    <t>Eval_Continua</t>
+  </si>
+  <si>
+    <t>Tipos_Plantas</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Ej_Clase</t>
+  </si>
+  <si>
+    <t>Teoría</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +333,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,10 +382,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,11 +401,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,9 +442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1303,256 +1471,701 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E0563D-07D0-4D44-8185-199B3A17A20F}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:B30"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="10">
+        <v>45294</v>
+      </c>
+      <c r="D1" s="10">
+        <v>45295</v>
+      </c>
+      <c r="E1" s="10">
+        <v>45301</v>
+      </c>
+      <c r="F1" s="10">
+        <v>45302</v>
+      </c>
+      <c r="G1" s="10">
+        <v>45308</v>
+      </c>
+      <c r="H1" s="10">
+        <v>45309</v>
+      </c>
+      <c r="I1" s="10">
+        <v>45315</v>
+      </c>
+      <c r="J1" s="10">
+        <v>45316</v>
+      </c>
+      <c r="K1" s="10">
+        <v>45322</v>
+      </c>
+      <c r="L1" s="10">
+        <v>45323</v>
+      </c>
+      <c r="M1" s="10">
+        <v>45329</v>
+      </c>
+      <c r="N1" s="10">
+        <v>45330</v>
+      </c>
+      <c r="O1" s="10">
+        <v>45336</v>
+      </c>
+      <c r="P1" s="10">
+        <v>45337</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>45343</v>
+      </c>
+      <c r="R1" s="10">
+        <v>45344</v>
+      </c>
+      <c r="S1" s="10">
+        <v>45350</v>
+      </c>
+      <c r="T1" s="10">
+        <v>45351</v>
+      </c>
+      <c r="U1" s="10">
+        <v>45357</v>
+      </c>
+      <c r="V1" s="10">
+        <v>45358</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20263998</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <f>SUM(C2:V2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20244739</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W30" si="0">SUM(C3:V3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10186663</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10187045</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10186376</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20238395</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10185692</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20266322</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20245456</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10186574</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20249032</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20266998</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20264862</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20268353</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20264649</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10187502</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20235464</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20247651</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20244756</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20266315</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20271313</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20266724</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20251515</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20250030</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20266265</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20251561</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10186004</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20270002</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10186676</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055D519-AB3F-436C-951D-C1EB12605601}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +2189,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2554,44 +3167,3318 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727DB94-4916-409C-9144-CE8D39448BC0}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H28" si="0">SUM(B3:G3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28C3D7-B5CE-4D7C-9DB9-0E39AEB35559}">
+  <dimension ref="A1:AE28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="5.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20263998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>SUM(E2:X2)</f>
+        <v>10</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>(Y2/20)*10</f>
+        <v>5</v>
+      </c>
+      <c r="AA2" s="9">
+        <f t="shared" ref="AA2:AA22" si="0">IF(Z2=10,Z2,Z2+0.5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>MAX(Z2:Z28)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20244739</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y28" si="1">SUM(E3:X3)</f>
+        <v>12</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:Z28" si="2">(Y3/20)*10</f>
+        <v>6</v>
+      </c>
+      <c r="AA3" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>10-AD2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10186663</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10187045</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>COUNTIF(AA2:AA28,"&gt;=6")</f>
+        <v>17</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>AD5/25</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10186376</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>COUNTIF(AA2:AA28,"&lt;6")-2</f>
+        <v>8</v>
+      </c>
+      <c r="AE6" s="8">
+        <f>AD6/25</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20238395</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10185692</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="1"/>
+        <v>8.83</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="2"/>
+        <v>4.415</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20266322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="1"/>
+        <v>16.66</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="2"/>
+        <v>8.33</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="0"/>
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20245456</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10186574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="1"/>
+        <v>11.83</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="2"/>
+        <v>5.915</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="0"/>
+        <v>6.415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20249032</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20266998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="1"/>
+        <v>13.25</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="2"/>
+        <v>6.625</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="0"/>
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20264862</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20268353</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="2"/>
+        <v>8.375</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" si="0"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>20264649</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10187502</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20235464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20247651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20244756</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20266315</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20271313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20251515</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AA23" s="9">
+        <f>IF(Z23=10,Z23,Z23+0.5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20250030</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" ref="AA24:AA27" si="3">IF(Z24=10,Z24,Z24+0.5)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20266265</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>20251561</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>20270002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="1"/>
+        <v>17.329999999999998</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" si="2"/>
+        <v>8.6649999999999991</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" si="3"/>
+        <v>9.1649999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>10186676</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="7815" ySplit="1155" topLeftCell="I1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="L2" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>5</v>
       </c>
       <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <f>SUM(C1:G1)</f>
+        <v>26</v>
+      </c>
+      <c r="I1" s="1">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20263998</v>
       </c>
@@ -2599,13 +6486,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(C3:G3)</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(H3/$H$1)*10</f>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="9">
+        <f>I3*0.4+J3*0.6</f>
+        <v>4.6846153846153848</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20244739</v>
       </c>
@@ -2616,10 +6530,37 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H29" si="0">SUM(C4:G4)</f>
+        <v>24.7</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I29" si="1">(H4/$H$1)*10</f>
+        <v>9.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K29" si="2">I4*0.4+J4*0.6</f>
+        <v>7.7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10186663</v>
       </c>
@@ -2632,8 +6573,35 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10187045</v>
       </c>
@@ -2646,8 +6614,35 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="2"/>
+        <v>3.4692307692307689</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10186376</v>
       </c>
@@ -2658,10 +6653,37 @@
         <v>3.5</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5384615384615383</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
+        <v>5.8153846153846152</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20238395</v>
       </c>
@@ -2672,10 +6694,37 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>7.1000000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>9.6538461538461533</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2615384615384606</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10185692</v>
       </c>
@@ -2686,10 +6735,37 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.6923076923076921</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4.915</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
+        <v>4.0259230769230765</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20266322</v>
       </c>
@@ -2700,10 +6776,37 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
         <v>7.6000000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>9.8461538461538467</v>
+      </c>
+      <c r="J10" s="9">
+        <v>8.83</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2364615384615387</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20245456</v>
       </c>
@@ -2714,10 +6817,36 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10186574</v>
       </c>
@@ -2730,8 +6859,35 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.346153846153846</v>
+      </c>
+      <c r="J12" s="9">
+        <v>6.415</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="2"/>
+        <v>4.3874615384615385</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20249032</v>
       </c>
@@ -2742,10 +6898,37 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1730769230769234</v>
+      </c>
+      <c r="J13" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
+        <v>8.3692307692307697</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20266998</v>
       </c>
@@ -2758,8 +6941,35 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>7.125</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20264862</v>
       </c>
@@ -2770,10 +6980,37 @@
         <v>4.5</v>
       </c>
       <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>25.15</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>9.6730769230769216</v>
+      </c>
+      <c r="J15" s="9">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2692307692307683</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20268353</v>
       </c>
@@ -2784,10 +7021,37 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>19.7</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5769230769230766</v>
+      </c>
+      <c r="J16" s="9">
+        <v>8.875</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
+        <v>8.3557692307692299</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20264649</v>
       </c>
@@ -2800,8 +7064,35 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10187502</v>
       </c>
@@ -2812,10 +7103,37 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="J18" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
+        <v>6.9923076923076923</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20235464</v>
       </c>
@@ -2826,10 +7144,37 @@
         <v>3.5</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5769230769230766</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20247651</v>
       </c>
@@ -2840,10 +7185,37 @@
         <v>3.5</v>
       </c>
       <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
         <v>2.9000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3461538461538458</v>
+      </c>
+      <c r="J20" s="9">
+        <v>5</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="2"/>
+        <v>5.138461538461538</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20244756</v>
       </c>
@@ -2854,10 +7226,37 @@
         <v>4.5</v>
       </c>
       <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>6.6923076923076916</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="2"/>
+        <v>6.2769230769230759</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20266315</v>
       </c>
@@ -2868,10 +7267,37 @@
         <v>4.5</v>
       </c>
       <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>17.3</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>6.6538461538461551</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6615384615384623</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20271313</v>
       </c>
@@ -2882,119 +7308,787 @@
         <v>4.5</v>
       </c>
       <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>9.0384615384615383</v>
+      </c>
+      <c r="J23" s="9">
+        <v>7</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="2"/>
+        <v>7.815384615384616</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20266724</v>
+        <v>20251515</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="9">
+        <v>10</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20251515</v>
+        <v>20250030</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>23.9</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1923076923076916</v>
+      </c>
+      <c r="J25" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="2"/>
+        <v>9.3769230769230774</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20266265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>7.6153846153846159</v>
+      </c>
+      <c r="J26" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="2"/>
+        <v>6.3461538461538467</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20251561</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>8.0769230769230766</v>
+      </c>
+      <c r="J27" s="9">
+        <v>6</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="2"/>
+        <v>6.8307692307692305</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20270002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9230769230769234</v>
+      </c>
+      <c r="J28" s="9">
+        <v>9.1649999999999991</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="2"/>
+        <v>9.4682307692307681</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10186676</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="2"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}"/>
+  <conditionalFormatting sqref="C3:G29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7871D383-96EF-40B0-BCA7-1BED6CDE7089}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20263998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3.9153846153846152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20244739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10186663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10187045</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.4692307692307689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10186376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5.5384615384615383</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5.8153846153846152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20238395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9.6538461538461533</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.2615384615384606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10185692</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>2.6923076923076921</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4.915</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.0259230769230765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20266322</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9.8461538461538467</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8.83</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9.2364615384615387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20245456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9.9615384615384599</v>
+      </c>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9">
+        <v>9.9846153846153847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10186574</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.346153846153846</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6.415</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4.3874615384615385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20249032</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8.1730769230769234</v>
+      </c>
+      <c r="D12" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8.3692307692307697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20266998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7.125</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.2749999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20264862</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9.6730769230769216</v>
+      </c>
+      <c r="D14" s="9">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9.2692307692307683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20268353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7.5769230769230766</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8.875</v>
+      </c>
+      <c r="E15" s="9">
+        <v>8.3557692307692299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20264649</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10187502</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6.9923076923076923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20235464</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.5769230769230766</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.2307692307692308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20247651</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.3461538461538458</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.138461538461538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20244756</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.6923076923076916</v>
+      </c>
+      <c r="D20" s="9">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9">
+        <v>6.2769230769230759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20266315</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6.6538461538461551</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.6615384615384623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20271313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9.0384615384615383</v>
+      </c>
+      <c r="D22" s="9">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9">
+        <v>7.815384615384616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20251515</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20250030</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9.1923076923076916</v>
+      </c>
+      <c r="D24" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="E24" s="9">
+        <v>9.3769230769230774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20266265</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7.6153846153846159</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>6.3461538461538467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20250030</v>
+        <v>20251561</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
+        <v>8.0769230769230766</v>
+      </c>
+      <c r="D26" s="9">
+        <v>6</v>
+      </c>
+      <c r="E26" s="9">
+        <v>6.8307692307692305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20266265</v>
+        <v>20270002</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9.9230769230769234</v>
+      </c>
+      <c r="D27" s="9">
+        <v>9.1649999999999991</v>
+      </c>
+      <c r="E27" s="9">
+        <v>9.4682307692307681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20251561</v>
+        <v>10186676</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10186004</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>20270002</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10186676</v>
-      </c>
-      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
+      <c r="C28" s="9">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3.8461538461538463</v>
       </c>
     </row>
   </sheetData>

--- a/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C406C7-D541-463F-BB2A-5E6C0BB4F079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC208924-D828-4E6E-A87E-A96CE03F2D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Satélites" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="89">
   <si>
     <t>Matrícula</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Faltas</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -386,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +419,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +753,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1205,7 +1217,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,7 +2190,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:A30"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727DB94-4916-409C-9144-CE8D39448BC0}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,9 +3714,27 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3712,26 +3742,26 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3932,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28C3D7-B5CE-4D7C-9DB9-0E39AEB35559}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,32 +4257,35 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -4261,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -4279,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -4289,14 +4322,15 @@
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -4389,11 +4423,11 @@
       </c>
       <c r="AD5" s="1">
         <f>COUNTIF(AA2:AA28,"&gt;=6")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" s="8">
         <f>AD5/25</f>
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -4486,11 +4520,11 @@
       </c>
       <c r="AD6" s="9">
         <f>COUNTIF(AA2:AA28,"&lt;6")-2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" s="8">
         <f>AD6/25</f>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -6035,7 +6069,7 @@
         <v>9</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" ref="AA24:AA27" si="3">IF(Z24=10,Z24,Z24+0.5)</f>
+        <f t="shared" ref="AA24:AA28" si="3">IF(Z24=10,Z24,Z24+0.5)</f>
         <v>9.5</v>
       </c>
     </row>
@@ -6307,35 +6341,38 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
@@ -6344,16 +6381,16 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -6362,21 +6399,22 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA28" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -6387,13 +6425,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7815" ySplit="1155" topLeftCell="I1" activePane="bottomRight"/>
+      <pane xSplit="7815" ySplit="1155" topLeftCell="H20" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="L2" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6478,7 +6517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20263998</v>
       </c>
@@ -6491,35 +6530,35 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
+      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
         <f>SUM(C3:G3)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I3" s="9">
         <f>(H3/$H$1)*10</f>
-        <v>3.4615384615384617</v>
+        <v>7.3076923076923075</v>
       </c>
       <c r="J3" s="9">
         <v>5.5</v>
       </c>
       <c r="K3" s="9">
         <f>I3*0.4+J3*0.6</f>
-        <v>4.6846153846153848</v>
+        <v>6.2230769230769232</v>
       </c>
       <c r="L3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20244739</v>
       </c>
@@ -6560,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10186663</v>
       </c>
@@ -6591,17 +6630,17 @@
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10187045</v>
       </c>
@@ -6642,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10186376</v>
       </c>
@@ -6683,7 +6722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20238395</v>
       </c>
@@ -6724,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10185692</v>
       </c>
@@ -6765,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20266322</v>
       </c>
@@ -6806,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20245456</v>
       </c>
@@ -6846,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10186574</v>
       </c>
@@ -6887,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20249032</v>
       </c>
@@ -6928,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20266998</v>
       </c>
@@ -6969,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20264862</v>
       </c>
@@ -7010,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20268353</v>
       </c>
@@ -7051,7 +7090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20264649</v>
       </c>
@@ -7092,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10187502</v>
       </c>
@@ -7133,7 +7172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20235464</v>
       </c>
@@ -7182,7 +7221,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -7198,24 +7237,23 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="1"/>
-        <v>5.3461538461538458</v>
+        <v>6.12</v>
       </c>
       <c r="J20" s="9">
         <v>5</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>5.138461538461538</v>
+        <v>5.4480000000000004</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20244756</v>
       </c>
@@ -7235,28 +7273,28 @@
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>6.6923076923076916</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="J21" s="9">
         <v>6</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="2"/>
-        <v>6.2769230769230759</v>
+        <v>7.046153846153846</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20266315</v>
       </c>
@@ -7276,28 +7314,28 @@
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>17.3</v>
+        <v>22.3</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>6.6538461538461551</v>
+        <v>8.5769230769230766</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>2.6615384615384623</v>
+        <v>3.430769230769231</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20271313</v>
       </c>
@@ -7338,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20251515</v>
       </c>
@@ -7379,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20250030</v>
       </c>
@@ -7396,31 +7434,31 @@
         <v>7.9</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <v>7</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>23.9</v>
+        <v>25.9</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>9.1923076923076916</v>
+        <v>9.9615384615384599</v>
       </c>
       <c r="J25" s="9">
         <v>9.5</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="2"/>
-        <v>9.3769230769230774</v>
+        <v>9.684615384615384</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20266265</v>
       </c>
@@ -7461,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20251561</v>
       </c>
@@ -7502,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20270002</v>
       </c>
@@ -7543,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10186676</v>
       </c>
@@ -7574,18 +7612,24 @@
         <v>9.615384615384615</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="2"/>
-        <v>3.8461538461538463</v>
+        <v>7.7461538461538462</v>
       </c>
       <c r="L29" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}"/>
+  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GONZALEZ TALAVERA AXEL IZACHARD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C3:G29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
@@ -7600,7 +7644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7871D383-96EF-40B0-BCA7-1BED6CDE7089}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC208924-D828-4E6E-A87E-A96CE03F2D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857043D8-D825-475D-BFE0-B1353A283DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
   </bookViews>
@@ -6425,13 +6425,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7815" ySplit="1155" topLeftCell="H20" activePane="bottomLeft"/>
+      <pane xSplit="7815" ySplit="1155" topLeftCell="H16" activePane="bottomLeft"/>
       <selection pane="topRight" activeCell="L2" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B29"/>
       <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -6517,7 +6516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20263998</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20244739</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10186663</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10187045</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10186376</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20238395</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10185692</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20266322</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20245456</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10186574</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20249032</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20266998</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20264862</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20268353</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20264649</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10187502</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20235464</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20244756</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20266315</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20271313</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20251515</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20250030</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20266265</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20251561</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20270002</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10186676</v>
       </c>
@@ -7623,13 +7622,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GONZALEZ TALAVERA AXEL IZACHARD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}"/>
   <conditionalFormatting sqref="C3:G29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>

--- a/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857043D8-D825-475D-BFE0-B1353A283DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB070AD8-1CCA-4C7C-94D6-6F1BB60B47EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Satélites" sheetId="3" r:id="rId1"/>
@@ -753,7 +753,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6425,13 +6425,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7815" ySplit="1155" topLeftCell="H16" activePane="bottomLeft"/>
+      <pane xSplit="7815" ySplit="1155" topLeftCell="J1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="L2" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B29"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6516,7 +6517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20263998</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20244739</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10186663</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10187045</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10186376</v>
       </c>
@@ -6721,7 +6722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20238395</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10185692</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20266322</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20245456</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10186574</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20249032</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20266998</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20264862</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20268353</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20264649</v>
       </c>
@@ -7130,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10187502</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20235464</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20247651</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -7236,23 +7237,23 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="I20" s="9">
-        <v>6.12</v>
+        <v>5.45</v>
       </c>
       <c r="J20" s="9">
         <v>5</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>5.4480000000000004</v>
+        <v>5.18</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20244756</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20266315</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20271313</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20251515</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20250030</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20266265</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20251561</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20270002</v>
       </c>
@@ -7622,7 +7623,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}"/>
+  <autoFilter ref="A2:L29" xr:uid="{FFEB7F98-1FFF-4EFC-8C0D-71BF12C18CD5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PEREZ ALVIZO MELANIE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C3:G29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>

--- a/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_124.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB070AD8-1CCA-4C7C-94D6-6F1BB60B47EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567DE7A-C0E5-4513-9623-35615070B29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{290973E0-6FF6-4F81-956C-5BFE21AE5B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Satélites" sheetId="3" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E0563D-07D0-4D44-8185-199B3A17A20F}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6428,7 +6428,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="7815" ySplit="1155" topLeftCell="J1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="L2" sqref="L1:L1048576"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
